--- a/NXB.xlsx
+++ b/NXB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="342">
   <si>
     <t>caseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控审批订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,10 +130,6 @@
     <t>AUDIT_RETURN</t>
   </si>
   <si>
-    <t>风控审批订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F001</t>
   </si>
   <si>
@@ -602,28 +602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系人占比大于等于70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人占比小于70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"num":"7","dinstinctName":"7",
-"distinctMobile":"7"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"num":"6","dinstinctName":"6",
-"distinctMobile":"6"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userinfoNo": "与student不同专业","addrList": [{"num": "10","dinstinctName": "10","distinctMobile": "10"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,14 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NXB_F009_联系人占比大于等于70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXB_F009_联系人占比小于70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ios</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,7 +618,779 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NXB_F009_联系人占比大于等于70(adnroid用户)</t>
+    <t>首次借款时只登陆过一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次借款时登陆过多次同一设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次借款时登陆过多次不同设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loginNum":"1",
+"isSame":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loginNum":"2",
+"isSame":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loginNum":"2",
+"isSame":"N"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次借款时只登陆过一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F010_首次借款时只登陆过一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次借款时登陆过多次同一设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F010_首次借款时登陆过多次同一设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次借款时登陆过多次不同设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F010_首次借款时登陆过多次不同设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含有中介等关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含有中介等关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F010_首次借款时登陆过多次不同设备(有成功订单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F011_含有中介等关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含有中介等关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F011_不含有中介等关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"num":"1","dinstinctName":"1",
+"distinctMobile":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student是同学且通讯录中均有对方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student是同学B的通讯录中有A但A中没有B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student是但通讯录中均没有对方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student不同一年入学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student不同学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student不同专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student是同学但不是牛呗用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与student是同学B的通讯录中有A但A中没有B但C中有AA中有C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allNum": "1","userinfo": [{"userinfoNo": "与student是同学","inAddrListNum": "2"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allNum": "1","userinfo": [{"userinfoNo": "与student是同学","inAddrListNum": "1"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allNum": "1","userinfo": [{"userinfoNo": "与student是同学","inAddrListNum": "0"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allNum": "1","userinfo": [{"userinfoNo": "与student不同一年入学","inAddrListNum": "1"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allNum": "1","userinfo": [{"userinfoNo": "与student不同学校","inAddrListNum": "1"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allNum": "1","userinfo": [{"userinfoNo": "与student不同专业","inAddrListNum": "1"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allNum": "1","userinfo": [{"userinfoNo": "与student是同学但不是牛呗用户","inAddrListNum": "1"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allNum": "2","userinfo": [{"userinfoNo": "与student是同学","inAddrListNum": "1"},{"userinfoNo": "与student是同学_1","inAddrListNum": "2"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F012</t>
+  </si>
+  <si>
+    <t>F012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F011_含有中介等关键字(有成功订单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F012_与student是同学且通讯录中均有对方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F012_与student是同学B的通讯录中有A但A中没有B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F012_与student是但通讯录中均没有对方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F012_与student不同一年入学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F012_与student不同学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F012_与student不同专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F012_与student是同学但不是牛呗用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F012_与student是同学B的通讯录中有A但A中没有B但C中有AA中有C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字超过3个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字不超过3个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student本科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student专科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student专科学校在新疆</t>
+  </si>
+  <si>
+    <t>student专科</t>
+  </si>
+  <si>
+    <t>F013</t>
+  </si>
+  <si>
+    <t>F013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F012_与student是同学B的通讯录中有A但A中没有B(有成功订单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F013_名字超过3个字且本科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F013_名字不超过3个字且本科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F013_名字超过3个字但本科学校不在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F013_名字超过3个字且专科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F013_名字不超过3个字但专科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F013_名字超过3个字但专科学校不在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F013_名字不超过3个字且专科学校不在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F013_名字超过3个字且本科学校在新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "day": "15", "call": "48",
+ "called": "0" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "day": "16", "call": "48",
+ "called": "0" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "day": "15", "call": "40",
+ "called": "7" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前15天共48次通话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前16天共48次通话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前15天共47次通话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userinfoNo": "与student不同专业","addrList": [{"num": "7","dinstinctName": "7","distinctMobile": "7"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人占比大于70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人占比小于等于70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userinfoNo": "与student不同专业","addrList": [{"num": "8","dinstinctName": "8","distinctMobile": "8"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F009_联系人占比大于70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F009_联系人占比小于等于70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F009_联系人占比大于70(adnroid用户)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_F009_联系人占比大于70(有成功订单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U001_信用分小于100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U001_信用分大于等于100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U002_年龄小于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U002_年龄等于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U002_年龄小于30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U002_年龄等于30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通全日制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全日制</t>
+  </si>
+  <si>
+    <t>全日制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通全日制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函授</t>
+  </si>
+  <si>
+    <t>函授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U005_普通全日制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全日制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U005_全日制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在外部黑名单(全部匹配)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在外部黑名单（前后六位匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在外部黑名单（前六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在外部黑名单（后六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在外部黑名单（无数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"220322199901297363"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"220322199102297363"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"222322199102297363"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"220322199102297362"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U007</t>
+  </si>
+  <si>
+    <t>U007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDIT_PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U005_函授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U007_用户在外部黑名单(全部匹配)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U007_用户在外部黑名单（前后六位匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U007_用户不在外部黑名单（前六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U007_用户不在外部黑名单（后六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控审批订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U007_用户不在外部黑名单（无数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U009_有待还的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "非当天创建的待还订单（牛大咖）","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "非当天创建的待还订单（牛小宝）","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "失败的牛大款订单","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一设备有失败的牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一设备有未结清的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一设备有未结清的牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一设备有失败的牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一设备有未结清的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U009_有失败的牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一设备有未结清的触宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一设备有未结清的触宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U009_有待还的牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U009_有待还的触宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备在黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备不在黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备在黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U010_设备在黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备不在黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U010_设备不在黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "非当天创建的触宝订单mobileSign相同","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控审批订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student已毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U013_student已毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student学校在重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U015_student学校在重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student学校在深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U015_student学校在深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U016_用户在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U016_用户不在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student一线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student二线城市手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U018_年龄小于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U018_年龄等于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U018_年龄小于22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB_U018_年龄等于22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +1434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -714,6 +1456,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A33"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1032,17 +1777,26 @@
     <col min="8" max="8" width="41.875" customWidth="1"/>
     <col min="9" max="9" width="42.875" customWidth="1"/>
     <col min="10" max="10" width="46.125" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.875" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.125" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.125" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>60</v>
@@ -1062,381 +1816,909 @@
       <c r="I1" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="J1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>287</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7" t="s">
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="B28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="B30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="6" t="s">
+      <c r="B32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J32" s="7" t="s">
+    <row r="33" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>149</v>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P53" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P54" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S68" s="4"/>
+    </row>
+    <row r="69" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T74" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U76" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1448,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1461,6 +2743,7 @@
     <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1501,17 +2784,17 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1522,17 +2805,17 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1543,17 +2826,17 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1564,17 +2847,17 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1595,7 +2878,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1616,7 +2899,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1637,7 +2920,7 @@
         <v>53</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1658,7 +2941,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1679,7 +2962,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1700,7 +2983,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1721,7 +3004,7 @@
         <v>53</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1742,7 +3025,7 @@
         <v>53</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1763,7 +3046,7 @@
         <v>75</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1784,7 +3067,7 @@
         <v>76</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1805,7 +3088,7 @@
         <v>77</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1826,7 +3109,7 @@
         <v>77</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1847,7 +3130,7 @@
         <v>92</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1868,7 +3151,7 @@
         <v>92</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1889,7 +3172,7 @@
         <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1910,7 +3193,7 @@
         <v>91</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1931,7 +3214,7 @@
         <v>91</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1952,7 +3235,7 @@
         <v>91</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1973,7 +3256,7 @@
         <v>91</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1994,7 +3277,7 @@
         <v>115</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2015,7 +3298,7 @@
         <v>115</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2036,7 +3319,7 @@
         <v>115</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2057,7 +3340,7 @@
         <v>140</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2078,7 +3361,7 @@
         <v>140</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2099,7 +3382,7 @@
         <v>139</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2120,7 +3403,7 @@
         <v>139</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2141,7 +3424,7 @@
         <v>139</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2162,7 +3445,7 @@
         <v>139</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2183,12 +3466,12 @@
         <v>139</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -2204,12 +3487,12 @@
         <v>139</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -2218,44 +3501,44 @@
         <v>52</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="B37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -2264,16 +3547,1119 @@
         <v>52</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91" s="4">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B92" s="4">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" s="4">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/NXB.xlsx
+++ b/NXB.xlsx
@@ -2733,7 +2733,7 @@
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89:B93"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4547,7 +4547,7 @@
         <v>331</v>
       </c>
       <c r="B88" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>209</v>
@@ -4567,7 +4567,7 @@
         <v>338</v>
       </c>
       <c r="B89" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>332</v>
@@ -4587,7 +4587,7 @@
         <v>339</v>
       </c>
       <c r="B90" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>332</v>
@@ -4607,7 +4607,7 @@
         <v>340</v>
       </c>
       <c r="B91" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>332</v>
@@ -4627,7 +4627,7 @@
         <v>341</v>
       </c>
       <c r="B92" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>332</v>
@@ -4647,7 +4647,7 @@
         <v>339</v>
       </c>
       <c r="B93" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>337</v>
